--- a/Test_Data/new_note.xlsx
+++ b/Test_Data/new_note.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\RPA\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\RPA\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AA8D56-9BA2-4B5B-BF77-8D4675E0F512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFEDDC5-2D4B-4060-A21E-AFD3C7121FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BCBE9584-7723-4DA4-B233-3BDAB7361A6B}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Nom</t>
   </si>
@@ -60,9 +57,6 @@
     <t>nom_4</t>
   </si>
   <si>
-    <t>nom_5</t>
-  </si>
-  <si>
     <t>nom_8</t>
   </si>
   <si>
@@ -75,9 +69,6 @@
     <t>prénom_3</t>
   </si>
   <si>
-    <t>prénom_5</t>
-  </si>
-  <si>
     <t>prénom_8</t>
   </si>
   <si>
@@ -106,6 +97,18 @@
   </si>
   <si>
     <t>prénom_22</t>
+  </si>
+  <si>
+    <t>nom_15</t>
+  </si>
+  <si>
+    <t>prénom_15</t>
+  </si>
+  <si>
+    <t>nom_111</t>
+  </si>
+  <si>
+    <t>prénom_111</t>
   </si>
 </sst>
 </file>
@@ -465,15 +468,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F352DBF-F80E-43F5-B0E7-BA5F25A307FE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,148 +486,123 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
